--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Endgame/Schisto coverage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77499FC-32E2-AD47-8A12-3D9A11A0D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B3783-1045-4FDC-8818-A7483B9AF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3500" windowWidth="25640" windowHeight="13940" activeTab="1" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -458,13 +458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="W12:AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -737,31 +737,31 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="X6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Y6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AD6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -829,28 +829,28 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>60.35</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="Y7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD7">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -914,32 +914,32 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.45</v>
+      </c>
+      <c r="Y8">
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1007,28 +1007,28 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>60.35</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="Y9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD9">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1092,32 +1092,32 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>80.75</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.8075</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1215,13 +1215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F2D99-6D6A-CD4F-83A8-836F61647DE0}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B3783-1045-4FDC-8818-A7483B9AF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD4729-78B6-475B-AF54-F331E9B86A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="1160" yWindow="910" windowWidth="18040" windowHeight="9170" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -458,13 +458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD18" sqref="W12:AD18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -578,41 +578,74 @@
       <c r="H2">
         <v>0.6</v>
       </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
       <c r="J2">
         <v>0.6</v>
       </c>
+      <c r="K2">
+        <v>0.6</v>
+      </c>
       <c r="L2">
         <v>0.6</v>
       </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
       <c r="N2">
         <v>0.6</v>
       </c>
+      <c r="O2">
+        <v>0.6</v>
+      </c>
       <c r="P2">
         <v>0.6</v>
       </c>
+      <c r="Q2">
+        <v>0.6</v>
+      </c>
       <c r="R2">
         <v>0.6</v>
       </c>
+      <c r="S2">
+        <v>0.6</v>
+      </c>
       <c r="T2">
         <v>0.6</v>
       </c>
+      <c r="U2">
+        <v>0.6</v>
+      </c>
       <c r="V2">
         <v>0.6</v>
       </c>
+      <c r="W2">
+        <v>0.6</v>
+      </c>
       <c r="X2">
         <v>0.6</v>
       </c>
+      <c r="Y2">
+        <v>0.6</v>
+      </c>
       <c r="Z2">
         <v>0.6</v>
       </c>
+      <c r="AA2">
+        <v>0.6</v>
+      </c>
       <c r="AB2">
         <v>0.6</v>
       </c>
+      <c r="AC2">
+        <v>0.6</v>
+      </c>
       <c r="AD2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -632,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -652,7 +685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -672,7 +705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -761,7 +794,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -850,7 +883,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -939,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1061,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1219,9 +1252,9 @@
       <selection sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1334,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD4729-78B6-475B-AF54-F331E9B86A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E25EBA-55D9-8E4C-9A5C-878530CE3E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="910" windowWidth="18040" windowHeight="9170" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="5520" yWindow="5800" windowWidth="41380" windowHeight="19540" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Old Product B (SOC)</t>
+  </si>
+  <si>
+    <t>Vector Control</t>
   </si>
 </sst>
 </file>
@@ -456,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +559,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -576,76 +579,76 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="L2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="M2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="O2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="R2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="S2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="T2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="U2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="V2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="W2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="X2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -665,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -685,7 +688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -705,7 +708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -761,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="W6">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="X6">
         <v>0.95</v>
@@ -794,7 +797,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -853,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="X7">
         <v>0.60350000000000004</v>
@@ -883,7 +886,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -938,13 +941,13 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
+      <c r="T8">
+        <v>0.45</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
@@ -972,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1031,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="X9">
         <v>0.60350000000000004</v>
@@ -1061,7 +1064,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1116,13 +1119,13 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
+      <c r="T10">
+        <v>0.6715000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1237,6 +1240,17 @@
       </c>
       <c r="AD11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1E-8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1252,9 +1266,9 @@
       <selection sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1348,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +1494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E25EBA-55D9-8E4C-9A5C-878530CE3E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAA7052-C2CD-064F-8C4F-146F191A8A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="5800" windowWidth="41380" windowHeight="19540" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:AD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -693,19 +693,88 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.79</v>
+      </c>
+      <c r="U5">
+        <v>0.8</v>
+      </c>
+      <c r="V5">
+        <v>0.81</v>
+      </c>
+      <c r="W5">
+        <v>0.82</v>
+      </c>
+      <c r="X5">
+        <v>0.95</v>
+      </c>
+      <c r="Y5">
+        <v>0.95</v>
+      </c>
+      <c r="Z5">
+        <v>0.95</v>
+      </c>
+      <c r="AA5">
+        <v>0.95</v>
+      </c>
+      <c r="AB5">
+        <v>0.95</v>
+      </c>
+      <c r="AC5">
+        <v>0.95</v>
+      </c>
+      <c r="AD5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -719,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -764,37 +833,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="V6">
-        <v>0.81</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="W6">
-        <v>0.82</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="X6">
-        <v>0.95</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="Y6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AD6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -805,85 +874,85 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="U7">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.68849999999999989</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.69700000000000006</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.60350000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="Y7">
-        <v>0.8075</v>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="Z7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -894,16 +963,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -911,68 +980,68 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.68849999999999989</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="X8">
-        <v>0.45</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="Y8">
-        <v>1.0000000000000001E-7</v>
+        <v>0.8075</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -989,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1000,68 +1069,68 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.6715000000000001</v>
       </c>
       <c r="U9">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.68849999999999989</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.69700000000000006</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.60350000000000004</v>
+        <v>0.8075</v>
       </c>
       <c r="Y9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1078,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1089,38 +1158,38 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.6715000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1132,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.8075</v>
+        <v>0.45</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1147,109 +1216,20 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0.45</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0.45</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0.45</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="J11" s="2">
         <v>1E-8</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K11" s="2">
         <v>1E-8</v>
       </c>
     </row>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/SCH_params/Scenarios_9_5_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAA7052-C2CD-064F-8C4F-146F191A8A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD252D5A-6ADE-5944-AB94-6B84FEAE3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="5800" windowWidth="41380" windowHeight="19540" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
     <sheet name="MarketShare" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -461,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="X5">
         <v>0.95</v>
@@ -836,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.68849999999999989</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.69700000000000006</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0.60350000000000004</v>
@@ -921,13 +922,13 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0.45</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7">
@@ -1014,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.68849999999999989</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.69700000000000006</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0.60350000000000004</v>
@@ -1099,13 +1100,13 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0.6715000000000001</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9">
@@ -1189,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
